--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATKEN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA4A10B-FEA4-4150-9C48-47CA14CEDE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE48441-FCB9-4640-9599-781A974331E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DF1B14-1A69-2348-BA86-2407933104F9}">
   <dimension ref="A1:AW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE48441-FCB9-4640-9599-781A974331E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F378890A-1320-4767-81CF-1424F39FF7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -96,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -121,6 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +439,7 @@
   <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -873,6 +874,15 @@
       <c r="C22" s="3">
         <v>44429</v>
       </c>
+      <c r="D22" s="14">
+        <v>44440</v>
+      </c>
+      <c r="E22" s="14">
+        <v>44441</v>
+      </c>
+      <c r="F22" s="14">
+        <v>44444</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F378890A-1320-4767-81CF-1424F39FF7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E25C3B2-91E0-4C89-AAC2-E8C70A406841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -96,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -121,7 +121,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +438,7 @@
   <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -874,14 +873,17 @@
       <c r="C22" s="3">
         <v>44429</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="3">
         <v>44440</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="3">
         <v>44441</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="3">
         <v>44444</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44447</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24503"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E25C3B2-91E0-4C89-AAC2-E8C70A406841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0CA5DA-3EC0-4BCD-A1BB-8E0162EADC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -438,14 +438,14 @@
   <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
@@ -885,6 +885,12 @@
       <c r="G22" s="3">
         <v>44447</v>
       </c>
+      <c r="H22" s="3">
+        <v>44448</v>
+      </c>
+      <c r="I22" s="3">
+        <v>44451</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0CA5DA-3EC0-4BCD-A1BB-8E0162EADC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55A43E-464A-462A-9BCA-BC507B2A1123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -891,6 +891,9 @@
       <c r="I22" s="3">
         <v>44451</v>
       </c>
+      <c r="J22" s="3">
+        <v>44454</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24503"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55A43E-464A-462A-9BCA-BC507B2A1123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0288A1-3466-4EE0-A4AE-20D28A33C2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DF1B14-1A69-2348-BA86-2407933104F9}">
-  <dimension ref="A1:AW22"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -894,6 +894,53 @@
       <c r="J22" s="3">
         <v>44454</v>
       </c>
+      <c r="K22" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L22" s="3">
+        <v>44462</v>
+      </c>
+      <c r="M22" s="3">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>58</v>
+      </c>
+      <c r="L24">
+        <v>59</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Absensi patrick.xlsx
+++ b/docs/Absensi patrick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Inventaris\inventaris\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0288A1-3466-4EE0-A4AE-20D28A33C2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94193916-A27D-48EB-963C-D10B55D641A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54713D1F-F66C-094E-8AF5-7543645B43D4}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DF1B14-1A69-2348-BA86-2407933104F9}">
-  <dimension ref="A1:AW24"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -942,6 +942,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="3">
+        <v>44469</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44472</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44476</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44479</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:R2"/>
